--- a/data_umm.xlsx
+++ b/data_umm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\Dashboard\23pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA373797-871A-4F37-B8B1-4E56C0ECFF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5176CBB-1253-4DDE-8F93-857693ADE69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5746" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="796">
   <si>
     <t>Agama</t>
   </si>
@@ -2807,11 +2807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J726"/>
+  <dimension ref="A1:J727"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A676" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F692" sqref="F692"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I728" sqref="I728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23690,6 +23690,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>9106123163</v>
+      </c>
+      <c r="B727" t="s">
+        <v>735</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F727" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I727" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J727" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J685" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J685">
